--- a/src/test/java/TestCasesTask/StringCollection.xlsx
+++ b/src/test/java/TestCasesTask/StringCollection.xlsx
@@ -1,167 +1,156 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mehme\IdeaProjects\testStringCollection\src\test\java\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mehme\IdeaProjects\mongooseGrayTask\src\test\java\TestCasesTask\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{274B9725-1A3A-49C7-9397-BC8445E92A5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D61B0C1-C48D-4751-A09A-58E524AE5F7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2865" yWindow="2880" windowWidth="21600" windowHeight="11295" xr2:uid="{C4EF5248-0662-4146-84FE-C8821AB3FD27}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="42">
+  <si>
+    <t>Test Cases</t>
+  </si>
+  <si>
+    <t>Test Scope</t>
+  </si>
+  <si>
+    <t>inputString</t>
+  </si>
+  <si>
+    <t>Test Case 1</t>
+  </si>
+  <si>
+    <t>Sample input which is given in task description</t>
+  </si>
   <si>
     <t>AAAc91%cWwWkLq$1ci3_848v3d__K</t>
   </si>
   <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Test Case 2</t>
+  </si>
+  <si>
+    <t>Input With Contiguous Duplicates</t>
+  </si>
+  <si>
     <t>AAAbbBB</t>
   </si>
   <si>
+    <t>Test Case 3</t>
+  </si>
+  <si>
+    <t>Input With Mix of Characters</t>
+  </si>
+  <si>
     <t>c91%cWwWkLq$1ci3_848v3d__K</t>
   </si>
   <si>
+    <t>Test Case 4</t>
+  </si>
+  <si>
+    <t>Input With Spaces</t>
+  </si>
+  <si>
     <t>This is a test input</t>
   </si>
   <si>
+    <t>Test Case 5</t>
+  </si>
+  <si>
+    <t>Input With Numbers</t>
+  </si>
+  <si>
+    <t>Test Case 6</t>
+  </si>
+  <si>
+    <t>Input With Special Characters</t>
+  </si>
+  <si>
     <t>!@#$%^&amp;*()_+</t>
   </si>
   <si>
+    <t>Test Case 7</t>
+  </si>
+  <si>
+    <t>Input With Mixed Case Contiguous Duplicates</t>
+  </si>
+  <si>
     <t>AaBBccDD</t>
   </si>
   <si>
+    <t>Test Case 8</t>
+  </si>
+  <si>
+    <t>Input With Long String</t>
+  </si>
+  <si>
     <t>This is a very long input string with more than 15 characters</t>
   </si>
   <si>
+    <t>Test Case 9</t>
+  </si>
+  <si>
+    <t>Input With All Special Characters</t>
+  </si>
+  <si>
+    <t>!@#£$%^&amp;()_+</t>
+  </si>
+  <si>
+    <t>Test Case 10</t>
+  </si>
+  <si>
+    <t>Input Containing Only  4s</t>
+  </si>
+  <si>
+    <t>Test Case 11</t>
+  </si>
+  <si>
+    <t>Input Containing Only Underscores</t>
+  </si>
+  <si>
+    <t>__________</t>
+  </si>
+  <si>
+    <t>Test Case 12</t>
+  </si>
+  <si>
+    <t>Input Containing Only Dollar Signs</t>
+  </si>
+  <si>
     <t>$$$</t>
   </si>
   <si>
+    <t>Test Case 13</t>
+  </si>
+  <si>
+    <t>Input with No Alphabet Characters</t>
+  </si>
+  <si>
     <t>!@#$%^&amp;*()_+1234567890</t>
   </si>
   <si>
-    <t>inputString</t>
-  </si>
-  <si>
-    <t>Test Cases</t>
-  </si>
-  <si>
-    <t>Test Case 1</t>
-  </si>
-  <si>
-    <t>Test Case 2</t>
-  </si>
-  <si>
-    <t>Test Case 3</t>
-  </si>
-  <si>
-    <t>Test Case 4</t>
-  </si>
-  <si>
-    <t>Test Case 5</t>
-  </si>
-  <si>
-    <t>Test Case 6</t>
-  </si>
-  <si>
-    <t>Test Case 7</t>
-  </si>
-  <si>
-    <t>Test Case 8</t>
-  </si>
-  <si>
-    <t>Test Case 9</t>
-  </si>
-  <si>
-    <t>Test Case 10</t>
-  </si>
-  <si>
-    <t>Test Case 11</t>
-  </si>
-  <si>
-    <t>Test Case 12</t>
-  </si>
-  <si>
-    <t>Test Case 13</t>
-  </si>
-  <si>
-    <t>Sample input which is given in task description</t>
-  </si>
-  <si>
-    <t>Input With Contiguous Duplicates</t>
-  </si>
-  <si>
-    <t>Input With Spaces</t>
-  </si>
-  <si>
-    <t>Input With Mix of Characters</t>
-  </si>
-  <si>
-    <t>Test Scope</t>
-  </si>
-  <si>
-    <t>Input With Numbers</t>
-  </si>
-  <si>
-    <t>Input With Special Characters</t>
-  </si>
-  <si>
-    <t>Input With Mixed Case Contiguous Duplicates</t>
-  </si>
-  <si>
-    <t>Input With Long String</t>
-  </si>
-  <si>
-    <t>Input With All Special Characters</t>
-  </si>
-  <si>
-    <t>Input with No Alphabet Characters</t>
-  </si>
-  <si>
-    <t>Input Containing Only Dollar Signs</t>
-  </si>
-  <si>
-    <t>!@#£$%^&amp;()_+</t>
-  </si>
-  <si>
-    <t>Input Containing Only Underscores</t>
-  </si>
-  <si>
-    <t>Input Containing Only  4s</t>
-  </si>
-  <si>
-    <t>__________</t>
-  </si>
-  <si>
-    <t>44444</t>
-  </si>
-  <si>
-    <t>1234567809</t>
+    <t>outputString</t>
   </si>
 </sst>
 </file>
@@ -200,7 +189,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2"/>
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -217,10 +206,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -255,7 +245,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -267,7 +257,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -314,23 +304,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -366,23 +339,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -534,177 +490,219 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8592166-0AE8-4168-8F44-C894B69FC989}">
-  <dimension ref="A1:C14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="43.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="54.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="43.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="54.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="35.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1234567809</v>
+      </c>
+      <c r="I6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="C10" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="G10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="B11" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="C11" s="1">
+        <v>44444</v>
+      </c>
+      <c r="H11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="B12" t="s">
         <v>33</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="C13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="B14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>8</v>
+      <c r="G14" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>